--- a/biology/Botanique/Nero_d'Avola/Nero_d'Avola.xlsx
+++ b/biology/Botanique/Nero_d'Avola/Nero_d'Avola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nero_d%27Avola</t>
+          <t>Nero_d'Avola</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Nero d'Avola est un cépage noir italien. Son nom vient de la ville d'Avola au sud-est de la Sicile. Il est parfois appelé Calabrese ou Calabrese d'Avola mais ce nom ne vient pas directement de la région italienne de Calabre. On ne le trouve pratiquement qu'en Sicile, où c'est le cépage le plus renommé.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nero_d%27Avola</t>
+          <t>Nero_d'Avola</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Vins DOC et DOCG</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Nero d'Avola est le cépage principal du DOCG (depuis 2005) Cerasuolo di Vittoria, le seul de Sicile, sur la côte sud entre Raguse et Gela. 
 Il est utilisé aussi dans de nombreux DOC comme le Riesi, l'Eloro, le Marsala. Il est aussi utilisé dans d'autres vins DOC avec la spécification Calabrese ou Nero d'Avola (par exemple, l'Alcamo, le Menfi, le Santa Margherita di Belice, le Sciacca).
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nero_d%27Avola</t>
+          <t>Nero_d'Avola</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Denominazione di Origine Controllata e Garantita
 Viticulture en Italie
